--- a/tables/WMV_significant regions.xlsx
+++ b/tables/WMV_significant regions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UoL\Brain_Imaging\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0C0ABF-55BB-451F-B0CA-38E2B4C54445}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C95B8E6-45B7-4549-866D-B420B5FD4F8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7750" yWindow="2945" windowWidth="13379" windowHeight="9413" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="36">
   <si>
     <t>No MASK</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>p-value (t-test)</t>
+  </si>
+  <si>
+    <t>slope</t>
+  </si>
+  <si>
+    <t>intercept</t>
   </si>
 </sst>
 </file>
@@ -182,10 +188,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,36 +472,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31:F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="27.6640625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -506,10 +520,16 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>4.7866022461671154E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.78660224616713E-2</v>
+      </c>
+      <c r="E4">
+        <v>-4.2405337598238769E-3</v>
+      </c>
+      <c r="F4">
+        <v>1.0049306933779198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>14</v>
       </c>
@@ -520,10 +540,16 @@
         <v>26</v>
       </c>
       <c r="D5">
-        <v>3.4845903148894172E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.4845903148893582E-2</v>
+      </c>
+      <c r="E5">
+        <v>-5.0662854361535597E-3</v>
+      </c>
+      <c r="F5">
+        <v>1.006689024572097</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>15</v>
       </c>
@@ -534,10 +560,16 @@
         <v>26</v>
       </c>
       <c r="D6">
-        <v>1.5406080910271845E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.5406080910270717E-2</v>
+      </c>
+      <c r="E6">
+        <v>-3.6966347575364445E-3</v>
+      </c>
+      <c r="F6">
+        <v>1.0049480100648671</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>15</v>
       </c>
@@ -548,10 +580,16 @@
         <v>27</v>
       </c>
       <c r="D7">
-        <v>3.8295257006824755E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.8295257006824471E-2</v>
+      </c>
+      <c r="E7">
+        <v>-4.526691782116391E-3</v>
+      </c>
+      <c r="F7">
+        <v>1.005714493811916</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>16</v>
       </c>
@@ -562,10 +600,16 @@
         <v>28</v>
       </c>
       <c r="D8">
-        <v>3.1938145892427994E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.1938145892428056E-2</v>
+      </c>
+      <c r="E8">
+        <v>-1.0984606039579292E-2</v>
+      </c>
+      <c r="F8">
+        <v>1.0177220108364962</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>18</v>
       </c>
@@ -576,10 +620,16 @@
         <v>28</v>
       </c>
       <c r="D9">
-        <v>2.7666609177124261E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.7666609177124393E-2</v>
+      </c>
+      <c r="E9">
+        <v>-9.4654161254040334E-3</v>
+      </c>
+      <c r="F9">
+        <v>1.0127776138498399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>19</v>
       </c>
@@ -590,10 +640,16 @@
         <v>27</v>
       </c>
       <c r="D10">
-        <v>3.7168584503358984E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.7168584503359879E-2</v>
+      </c>
+      <c r="E10">
+        <v>-9.7366783813175959E-3</v>
+      </c>
+      <c r="F10">
+        <v>1.0138431267681167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>22</v>
       </c>
@@ -604,10 +660,16 @@
         <v>28</v>
       </c>
       <c r="D11">
-        <v>2.6722109812180692E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.6722109812181507E-2</v>
+      </c>
+      <c r="E11">
+        <v>-1.1706434190248171E-3</v>
+      </c>
+      <c r="F11">
+        <v>1.0006856492536331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -618,10 +680,16 @@
         <v>29</v>
       </c>
       <c r="D12">
-        <v>2.867797342954112E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.8677973429541145E-2</v>
+      </c>
+      <c r="E12">
+        <v>5.0800960406589173E-4</v>
+      </c>
+      <c r="F12">
+        <v>1.0007964428545337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>25</v>
       </c>
@@ -632,10 +700,16 @@
         <v>26</v>
       </c>
       <c r="D13">
-        <v>4.7491325179289605E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.7491325179289091E-2</v>
+      </c>
+      <c r="E13">
+        <v>-5.651701291408062E-3</v>
+      </c>
+      <c r="F13">
+        <v>1.0088604850464189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>29</v>
       </c>
@@ -646,10 +720,16 @@
         <v>26</v>
       </c>
       <c r="D14">
-        <v>3.4870120892307593E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.4870120892305893E-2</v>
+      </c>
+      <c r="E14">
+        <v>-4.4117006362372167E-3</v>
+      </c>
+      <c r="F14">
+        <v>1.0052903297019933</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>32</v>
       </c>
@@ -660,10 +740,16 @@
         <v>28</v>
       </c>
       <c r="D15">
-        <v>4.044710484473045E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.0447104844730984E-2</v>
+      </c>
+      <c r="E15">
+        <v>1.1778434134413551E-2</v>
+      </c>
+      <c r="F15">
+        <v>0.991558730503594</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>32</v>
       </c>
@@ -674,10 +760,16 @@
         <v>29</v>
       </c>
       <c r="D16">
-        <v>3.4480443099082957E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.448044309908168E-2</v>
+      </c>
+      <c r="E16">
+        <v>-8.6957999949569369E-3</v>
+      </c>
+      <c r="F16">
+        <v>1.0104507838917667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>34</v>
       </c>
@@ -688,10 +780,16 @@
         <v>27</v>
       </c>
       <c r="D17">
-        <v>1.4298653782574057E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.4298653782574521E-2</v>
+      </c>
+      <c r="E17">
+        <v>-3.3289589578587076E-3</v>
+      </c>
+      <c r="F17">
+        <v>1.0036325012580802</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>34</v>
       </c>
@@ -702,10 +800,16 @@
         <v>29</v>
       </c>
       <c r="D18">
-        <v>2.0191425790731823E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.0191425790731025E-2</v>
+      </c>
+      <c r="E18">
+        <v>-6.2847600848224819E-3</v>
+      </c>
+      <c r="F18">
+        <v>1.0075424792200451</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>40</v>
       </c>
@@ -716,10 +820,16 @@
         <v>26</v>
       </c>
       <c r="D19">
-        <v>4.8321481238963786E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.8321481238966929E-2</v>
+      </c>
+      <c r="E19">
+        <v>-2.3105030716448066E-3</v>
+      </c>
+      <c r="F19">
+        <v>1.0027090526760012</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>43</v>
       </c>
@@ -730,10 +840,16 @@
         <v>26</v>
       </c>
       <c r="D20">
-        <v>4.3574911357416979E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.3574911357414578E-2</v>
+      </c>
+      <c r="E20">
+        <v>-4.2101954521216118E-3</v>
+      </c>
+      <c r="F20">
+        <v>1.0059224172710459</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>45</v>
       </c>
@@ -744,10 +860,16 @@
         <v>26</v>
       </c>
       <c r="D21">
-        <v>1.8389900429001807E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.8389900429001203E-2</v>
+      </c>
+      <c r="E21">
+        <v>-2.4875897089188803E-3</v>
+      </c>
+      <c r="F21">
+        <v>1.0034919666772708</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>46</v>
       </c>
@@ -758,10 +880,16 @@
         <v>26</v>
       </c>
       <c r="D22">
-        <v>2.2243828677145586E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.2243828677146638E-2</v>
+      </c>
+      <c r="E22">
+        <v>-1.6456015219311535E-3</v>
+      </c>
+      <c r="F22">
+        <v>1.0008295520683315</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>52</v>
       </c>
@@ -772,10 +900,16 @@
         <v>28</v>
       </c>
       <c r="D23">
-        <v>4.1037405411226656E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.1037405411227575E-3</v>
+      </c>
+      <c r="E23">
+        <v>2.2905580484760073E-3</v>
+      </c>
+      <c r="F23">
+        <v>0.99262282886569519</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>54</v>
       </c>
@@ -786,10 +920,16 @@
         <v>26</v>
       </c>
       <c r="D24">
-        <v>2.1085658100086065E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.1085658100085523E-2</v>
+      </c>
+      <c r="E24">
+        <v>-2.2957049517980978E-3</v>
+      </c>
+      <c r="F24">
+        <v>1.002170327273779</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>55</v>
       </c>
@@ -800,10 +940,16 @@
         <v>28</v>
       </c>
       <c r="D25">
-        <v>4.3349450370348042E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.3349450370348354E-2</v>
+      </c>
+      <c r="E25">
+        <v>-9.8625330507245996E-3</v>
+      </c>
+      <c r="F25">
+        <v>1.0131183816198523</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>67</v>
       </c>
@@ -814,10 +960,16 @@
         <v>28</v>
       </c>
       <c r="D26">
-        <v>1.6777351690604094E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.6777351690603785E-2</v>
+      </c>
+      <c r="E26">
+        <v>-9.5723976853557165E-3</v>
+      </c>
+      <c r="F26">
+        <v>1.0194856170385496</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>67</v>
       </c>
@@ -828,10 +980,16 @@
         <v>27</v>
       </c>
       <c r="D27">
-        <v>2.0876956049874367E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.0876956049874405E-2</v>
+      </c>
+      <c r="E27">
+        <v>1.4617208427781554E-4</v>
+      </c>
+      <c r="F27">
+        <v>0.99745829094282024</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>67</v>
       </c>
@@ -842,18 +1000,24 @@
         <v>29</v>
       </c>
       <c r="D28">
-        <v>2.3021362796686477E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.3021362796686515E-2</v>
+      </c>
+      <c r="E28">
+        <v>2.6180374145403063E-3</v>
+      </c>
+      <c r="F28">
+        <v>0.99249571139815784</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>13</v>
       </c>
@@ -864,10 +1028,16 @@
         <v>28</v>
       </c>
       <c r="D31">
-        <v>1.8264936944279553E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.8264936944279633E-2</v>
+      </c>
+      <c r="E31">
+        <v>-4.7922082599031624E-3</v>
+      </c>
+      <c r="F31">
+        <v>1.0056785179271575</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>14</v>
       </c>
@@ -878,10 +1048,16 @@
         <v>28</v>
       </c>
       <c r="D32">
-        <v>3.1488811641549395E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.1488811641548875E-2</v>
+      </c>
+      <c r="E32">
+        <v>1.7838770474259381E-3</v>
+      </c>
+      <c r="F32">
+        <v>0.99919381812683561</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>14</v>
       </c>
@@ -892,10 +1068,16 @@
         <v>27</v>
       </c>
       <c r="D33">
-        <v>7.3036625253830503E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7.3036625253819097E-3</v>
+      </c>
+      <c r="E33">
+        <v>-3.6782978323282242E-3</v>
+      </c>
+      <c r="F33">
+        <v>1.0035859422448148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>14</v>
       </c>
@@ -906,10 +1088,16 @@
         <v>29</v>
       </c>
       <c r="D34">
-        <v>3.4058284116886446E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.4058284116883233E-3</v>
+      </c>
+      <c r="E34">
+        <v>-6.0185135079330642E-3</v>
+      </c>
+      <c r="F34">
+        <v>1.0055422753005443</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>29</v>
       </c>
@@ -920,10 +1108,16 @@
         <v>26</v>
       </c>
       <c r="D35">
-        <v>1.301869155178834E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.3018691551787262E-2</v>
+      </c>
+      <c r="E35">
+        <v>-4.5533396442414492E-3</v>
+      </c>
+      <c r="F35">
+        <v>1.0053479529362226</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>29</v>
       </c>
@@ -934,10 +1128,16 @@
         <v>27</v>
       </c>
       <c r="D36">
-        <v>1.0409656886605667E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.040965688660498E-2</v>
+      </c>
+      <c r="E36">
+        <v>-5.1631100160620729E-3</v>
+      </c>
+      <c r="F36">
+        <v>1.0061085981423472</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>29</v>
       </c>
@@ -948,10 +1148,16 @@
         <v>29</v>
       </c>
       <c r="D37">
-        <v>2.8394295582366915E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.8394295582364146E-2</v>
+      </c>
+      <c r="E37">
+        <v>-6.0189155494623156E-3</v>
+      </c>
+      <c r="F37">
+        <v>1.0073067515778664</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>33</v>
       </c>
@@ -962,10 +1168,16 @@
         <v>27</v>
       </c>
       <c r="D38">
-        <v>3.6460432162143161E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.6460432162142044E-2</v>
+      </c>
+      <c r="E38">
+        <v>-1.4630095746823353E-3</v>
+      </c>
+      <c r="F38">
+        <v>1.0013454817144944</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>33</v>
       </c>
@@ -976,10 +1188,16 @@
         <v>29</v>
       </c>
       <c r="D39">
-        <v>2.8248422947021876E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.8248422947020544E-2</v>
+      </c>
+      <c r="E39">
+        <v>-5.2632178475328396E-3</v>
+      </c>
+      <c r="F39">
+        <v>1.0067882602124179</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>34</v>
       </c>
@@ -990,10 +1208,16 @@
         <v>26</v>
       </c>
       <c r="D40">
-        <v>2.1529890978152801E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.1529890978150307E-2</v>
+      </c>
+      <c r="E40">
+        <v>-8.6250635548094142E-4</v>
+      </c>
+      <c r="F40">
+        <v>0.99978061046203304</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>34</v>
       </c>
@@ -1004,10 +1228,16 @@
         <v>27</v>
       </c>
       <c r="D41">
-        <v>1.1482352412983572E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.1482352412982798E-2</v>
+      </c>
+      <c r="E41">
+        <v>-2.6246725030961713E-3</v>
+      </c>
+      <c r="F41">
+        <v>1.0021071064947269</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>34</v>
       </c>
@@ -1018,10 +1248,16 @@
         <v>29</v>
       </c>
       <c r="D42">
-        <v>1.9825909641463461E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.982590964146274E-2</v>
+      </c>
+      <c r="E42">
+        <v>-5.6917577862651446E-3</v>
+      </c>
+      <c r="F42">
+        <v>1.0067102622390942</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>35</v>
       </c>
@@ -1032,10 +1268,16 @@
         <v>27</v>
       </c>
       <c r="D43">
-        <v>4.8337611543729619E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.8337611543728606E-2</v>
+      </c>
+      <c r="E43">
+        <v>-1.1994981410340486E-4</v>
+      </c>
+      <c r="F43">
+        <v>0.99981201031796385</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>35</v>
       </c>
@@ -1046,10 +1288,16 @@
         <v>29</v>
       </c>
       <c r="D44">
-        <v>4.4804975571820727E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.4804975571817368E-2</v>
+      </c>
+      <c r="E44">
+        <v>1.7705977609430567E-3</v>
+      </c>
+      <c r="F44">
+        <v>0.99646321546309724</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>36</v>
       </c>
@@ -1060,10 +1308,16 @@
         <v>27</v>
       </c>
       <c r="D45">
-        <v>1.8832104634834569E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.8832104634833955E-2</v>
+      </c>
+      <c r="E45">
+        <v>2.5711172656477659E-3</v>
+      </c>
+      <c r="F45">
+        <v>0.99732517140647148</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>36</v>
       </c>
@@ -1074,10 +1328,16 @@
         <v>29</v>
       </c>
       <c r="D46">
-        <v>2.9280219254766624E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.9280219254766968E-2</v>
+      </c>
+      <c r="E46">
+        <v>2.7595503102380275E-3</v>
+      </c>
+      <c r="F46">
+        <v>0.99642377101958146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>37</v>
       </c>
@@ -1088,10 +1348,16 @@
         <v>28</v>
       </c>
       <c r="D47">
-        <v>3.2910858071002434E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.2910858071001921E-2</v>
+      </c>
+      <c r="E47">
+        <v>-4.4629429686124482E-3</v>
+      </c>
+      <c r="F47">
+        <v>1.0062459150978631</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>40</v>
       </c>
@@ -1102,10 +1368,16 @@
         <v>26</v>
       </c>
       <c r="D48">
-        <v>2.1993553023993386E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.1993553023994247E-2</v>
+      </c>
+      <c r="E48">
+        <v>-4.4208064637287423E-3</v>
+      </c>
+      <c r="F48">
+        <v>1.00731605626759</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>40</v>
       </c>
@@ -1116,10 +1388,16 @@
         <v>27</v>
       </c>
       <c r="D49">
-        <v>3.1381682494059183E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.1381682494058559E-2</v>
+      </c>
+      <c r="E49">
+        <v>-2.2108819649989003E-3</v>
+      </c>
+      <c r="F49">
+        <v>1.003370563600462</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>43</v>
       </c>
@@ -1130,10 +1408,16 @@
         <v>26</v>
       </c>
       <c r="D50">
-        <v>5.3755604367197573E-3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.3755604367198553E-3</v>
+      </c>
+      <c r="E50">
+        <v>-5.0430100875950134E-3</v>
+      </c>
+      <c r="F50">
+        <v>1.0067759714620153</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>43</v>
       </c>
@@ -1144,10 +1428,16 @@
         <v>27</v>
       </c>
       <c r="D51">
-        <v>8.5226348874406169E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.5226348874401173E-3</v>
+      </c>
+      <c r="E51">
+        <v>-3.2142987964547654E-3</v>
+      </c>
+      <c r="F51">
+        <v>1.0044348094932725</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>46</v>
       </c>
@@ -1158,10 +1448,16 @@
         <v>26</v>
       </c>
       <c r="D52">
-        <v>4.3610950219904278E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.3610950219905985E-2</v>
+      </c>
+      <c r="E52">
+        <v>9.9876481717343923E-4</v>
+      </c>
+      <c r="F52">
+        <v>0.99810818323054673</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1172,10 +1468,16 @@
         <v>28</v>
       </c>
       <c r="D53">
-        <v>1.2082574297855499E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.2082574297856365E-2</v>
+      </c>
+      <c r="E53">
+        <v>-1.523026636149911E-4</v>
+      </c>
+      <c r="F53">
+        <v>0.99978590575505066</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>68</v>
       </c>
@@ -1186,7 +1488,13 @@
         <v>26</v>
       </c>
       <c r="D54">
-        <v>4.9132299156833134E-2</v>
+        <v>4.9132299156826695E-2</v>
+      </c>
+      <c r="E54">
+        <v>6.0990196469139744E-4</v>
+      </c>
+      <c r="F54">
+        <v>0.99895073927216671</v>
       </c>
     </row>
   </sheetData>
